--- a/tests/data/tables/real.nature12344-s2.BYB1-G07.xlsx
+++ b/tests/data/tables/real.nature12344-s2.BYB1-G07.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="trajectory" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,57 +23,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t xml:space="preserve">Trajectory</t>
   </si>
   <si>
+    <t xml:space="preserve">trajectory-aqua-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trajectory-green-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trajectory-aqua-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trajectory-aqua-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trajectory-green-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trajectory-green-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trajectory-red-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trajectory-gold-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trajectory-gold-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trajectory-aqua-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trajectory-aqua-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trajectory-sienna-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trajectory-gold-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trajectory-orange-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trajectory-aqua-6</t>
+  </si>
+  <si>
     <t xml:space="preserve">Genotype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genotype-aqua-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genotype-green-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genotype-aqua-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genotype-aqua-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genotype-green-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genotype-green-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genotype-red-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genotype-gold-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genotype-gold-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genotype-aqua-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genotype-aqua-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genotype-sienna-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genotype-gold-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genotype-orange-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genotype-aqua-6</t>
   </si>
   <si>
     <t xml:space="preserve">genotype-aqua</t>
@@ -322,10 +322,10 @@
       <xdr:rowOff>49320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>199800</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1217160</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
+      <xdr:rowOff>158400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -339,7 +339,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1968840" y="3422160"/>
-          <a:ext cx="7154280" cy="5961960"/>
+          <a:ext cx="7153200" cy="5961240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -365,9 +365,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>560880</xdr:colOff>
+      <xdr:colOff>560160</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>38880</xdr:rowOff>
+      <xdr:rowOff>38160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -381,7 +381,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1650960" y="1413360"/>
-          <a:ext cx="7363440" cy="6136200"/>
+          <a:ext cx="7362720" cy="6135480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -403,73 +403,70 @@
   </sheetPr>
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="7.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="23.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="23.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>240</v>
+        <v>335</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>335</v>
+        <v>415</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>415</v>
+        <v>505</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>505</v>
+        <v>585</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>585</v>
+        <v>665</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>665</v>
+        <v>745</v>
       </c>
       <c r="K1" s="1" t="n">
-        <v>745</v>
+        <v>825</v>
       </c>
       <c r="L1" s="1" t="n">
-        <v>825</v>
+        <v>910</v>
       </c>
       <c r="M1" s="1" t="n">
-        <v>910</v>
-      </c>
-      <c r="N1" s="1" t="n">
         <v>1000</v>
       </c>
+      <c r="ALN1" s="0"/>
       <c r="ALO1" s="0"/>
       <c r="ALP1" s="0"/>
       <c r="ALQ1" s="0"/>
@@ -495,11 +492,10 @@
     </row>
     <row r="2" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="str">
-        <f aca="false">LEFT(A2,LEN(A2)-2)</f>
-        <v>genotype-aqua</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>0</v>
@@ -508,35 +504,33 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0</v>
+        <v>0.091703057</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>0.091703057</v>
+        <v>0.344086022</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>0.344086022</v>
+        <v>0.517450683</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>0.517450683</v>
+        <v>0.470588235</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.470588235</v>
+        <v>0.321003963</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>0.321003963</v>
+        <v>0.140250855</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>0.140250855</v>
+        <v>0.048218029</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>0.048218029</v>
+        <v>0.011122346</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>0.011122346</v>
-      </c>
-      <c r="N2" s="3" t="n">
         <v>0.030927835</v>
       </c>
+      <c r="ALN2" s="0"/>
       <c r="ALO2" s="0"/>
       <c r="ALP2" s="0"/>
       <c r="ALQ2" s="0"/>
@@ -562,48 +556,45 @@
     </row>
     <row r="3" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="0" t="str">
-        <f aca="false">LEFT(A3,LEN(A3)-2)</f>
-        <v>genotype-green</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.007</v>
+        <v>0.05</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0.05</v>
+        <v>0.266</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>0.266</v>
+        <v>0.291</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>0.291</v>
+        <v>0.333</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.333</v>
+        <v>0.388</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>0.388</v>
+        <v>0.695</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>0.695</v>
+        <v>0.898</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>0.898</v>
+        <v>0.927</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>0.927</v>
-      </c>
-      <c r="N3" s="3" t="n">
         <v>0.99</v>
       </c>
+      <c r="ALN3" s="0"/>
       <c r="ALO3" s="0"/>
       <c r="ALP3" s="0"/>
       <c r="ALQ3" s="0"/>
@@ -629,11 +620,10 @@
     </row>
     <row r="4" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="0" t="str">
-        <f aca="false">LEFT(A4,LEN(A4)-2)</f>
-        <v>genotype-aqua</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>0</v>
@@ -642,35 +632,33 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0</v>
+        <v>0.045</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>0.045</v>
+        <v>0.443</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>0.443</v>
+        <v>0.547</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>0.547</v>
+        <v>0.555</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.555</v>
+        <v>0.306</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>0.306</v>
+        <v>0.186</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>0.186</v>
+        <v>0.016</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>0.016</v>
+        <v>0.126</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>0.126</v>
-      </c>
-      <c r="N4" s="3" t="n">
         <v>0.022</v>
       </c>
+      <c r="ALN4" s="0"/>
       <c r="ALO4" s="0"/>
       <c r="ALP4" s="0"/>
       <c r="ALQ4" s="0"/>
@@ -696,48 +684,45 @@
     </row>
     <row r="5" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="0" t="str">
-        <f aca="false">LEFT(A5,LEN(A5)-2)</f>
-        <v>genotype-aqua</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>0</v>
+        <v>0.009</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>0.009</v>
+        <v>0.098</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>0.098</v>
+        <v>0.523</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>0.523</v>
+        <v>0.579</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>0.579</v>
+        <v>0.573</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.573</v>
+        <v>0.275</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>0.275</v>
+        <v>0.237</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>0.237</v>
+        <v>0.032</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>0.032</v>
+        <v>0.04</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N5" s="3" t="n">
         <v>0.035</v>
       </c>
+      <c r="ALN5" s="0"/>
       <c r="ALO5" s="0"/>
       <c r="ALP5" s="0"/>
       <c r="ALQ5" s="0"/>
@@ -763,11 +748,10 @@
     </row>
     <row r="6" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="0" t="str">
-        <f aca="false">LEFT(A6,LEN(A6)-2)</f>
-        <v>genotype-green</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>0</v>
@@ -776,35 +760,33 @@
         <v>0</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>0</v>
+        <v>0.033</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>0.033</v>
+        <v>0.305</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>0.305</v>
+        <v>0.338</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>0.338</v>
+        <v>0.285</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.285</v>
+        <v>0.562</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>0.562</v>
+        <v>0.806</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>0.806</v>
+        <v>0.891</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>0.891</v>
+        <v>0.957</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>0.957</v>
-      </c>
-      <c r="N6" s="3" t="n">
         <v>0.941</v>
       </c>
+      <c r="ALN6" s="0"/>
       <c r="ALO6" s="0"/>
       <c r="ALP6" s="0"/>
       <c r="ALQ6" s="0"/>
@@ -830,11 +812,10 @@
     </row>
     <row r="7" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="0" t="str">
-        <f aca="false">LEFT(A7,LEN(A7)-2)</f>
-        <v>genotype-green</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>0</v>
@@ -843,35 +824,33 @@
         <v>0</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>0.016</v>
+        <v>0.287</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>0.287</v>
+        <v>0.328</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>0.328</v>
+        <v>0.385</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.385</v>
+        <v>0.492</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>0.492</v>
+        <v>0.764</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>0.764</v>
+        <v>0.865</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>0.865</v>
+        <v>0.9</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="N7" s="3" t="n">
         <v>0.98</v>
       </c>
+      <c r="ALN7" s="0"/>
       <c r="ALO7" s="0"/>
       <c r="ALP7" s="0"/>
       <c r="ALQ7" s="0"/>
@@ -897,48 +876,45 @@
     </row>
     <row r="8" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="0" t="str">
-        <f aca="false">LEFT(A8,LEN(A8)-2)</f>
-        <v>genotype-red</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>0</v>
+        <v>0.109</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>0.109</v>
+        <v>0.329</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.329</v>
+        <v>0.539</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>0.539</v>
+        <v>0.38</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>0.38</v>
+        <v>0.226</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>0.226</v>
+        <v>0.246</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.246</v>
+        <v>0.428</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>0.428</v>
+        <v>0.75</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>0.75</v>
+        <v>0.937</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>0.937</v>
+        <v>0.948</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>0.948</v>
-      </c>
-      <c r="N8" s="3" t="n">
         <v>0.925</v>
       </c>
+      <c r="ALN8" s="0"/>
       <c r="ALO8" s="0"/>
       <c r="ALP8" s="0"/>
       <c r="ALQ8" s="0"/>
@@ -964,11 +940,10 @@
     </row>
     <row r="9" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="0" t="str">
-        <f aca="false">LEFT(A9,LEN(A9)-2)</f>
-        <v>genotype-gold</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>0</v>
@@ -989,23 +964,21 @@
         <v>0</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0</v>
+        <v>0.069</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>0.069</v>
+        <v>0.15</v>
       </c>
       <c r="K9" s="3" t="n">
-        <v>0.15</v>
+        <v>0.308</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>0.308</v>
+        <v>0.515</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>0.515</v>
-      </c>
-      <c r="N9" s="3" t="n">
         <v>0.611</v>
       </c>
+      <c r="ALN9" s="0"/>
       <c r="ALO9" s="0"/>
       <c r="ALP9" s="0"/>
       <c r="ALQ9" s="0"/>
@@ -1031,11 +1004,10 @@
     </row>
     <row r="10" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="0" t="str">
-        <f aca="false">LEFT(A10,LEN(A10)-2)</f>
-        <v>genotype-gold</v>
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>0</v>
@@ -1059,20 +1031,18 @@
         <v>0</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>0</v>
+        <v>0.032</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>0.032</v>
+        <v>0.196</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>0.196</v>
+        <v>0.389</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>0.389</v>
-      </c>
-      <c r="N10" s="3" t="n">
         <v>0.54</v>
       </c>
+      <c r="ALN10" s="0"/>
       <c r="ALO10" s="0"/>
       <c r="ALP10" s="0"/>
       <c r="ALQ10" s="0"/>
@@ -1098,48 +1068,45 @@
     </row>
     <row r="11" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="0" t="str">
-        <f aca="false">LEFT(A11,LEN(A11)-2)</f>
-        <v>genotype-aqua</v>
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>0</v>
+        <v>0.009</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>0.009</v>
+        <v>0.085</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>0.085</v>
+        <v>0.356</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>0.356</v>
+        <v>0.625</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>0.625</v>
+        <v>0.538</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.538</v>
+        <v>0.263</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>0.263</v>
+        <v>0.137</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>0.137</v>
+        <v>0.093</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>0.093</v>
+        <v>0.01</v>
       </c>
       <c r="M11" s="3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="N11" s="3" t="n">
         <v>0.057</v>
       </c>
+      <c r="ALN11" s="0"/>
       <c r="ALO11" s="0"/>
       <c r="ALP11" s="0"/>
       <c r="ALQ11" s="0"/>
@@ -1165,48 +1132,45 @@
     </row>
     <row r="12" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="0" t="str">
-        <f aca="false">LEFT(A12,LEN(A12)-2)</f>
-        <v>genotype-aqua</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>0</v>
+        <v>0.058</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>0.058</v>
+        <v>0.285</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.285</v>
+        <v>0.378</v>
       </c>
       <c r="G12" s="3" t="n">
-        <v>0.378</v>
+        <v>0.508</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>0.508</v>
+        <v>0.41</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.41</v>
+        <v>0.28</v>
       </c>
       <c r="J12" s="3" t="n">
-        <v>0.28</v>
+        <v>0.262</v>
       </c>
       <c r="K12" s="3" t="n">
-        <v>0.262</v>
+        <v>0.133</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>0.133</v>
+        <v>0.016</v>
       </c>
       <c r="M12" s="3" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="N12" s="3" t="n">
         <v>0.029</v>
       </c>
+      <c r="ALN12" s="0"/>
       <c r="ALO12" s="0"/>
       <c r="ALP12" s="0"/>
       <c r="ALQ12" s="0"/>
@@ -1232,11 +1196,10 @@
     </row>
     <row r="13" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="0" t="str">
-        <f aca="false">LEFT(A13,LEN(A13)-2)</f>
-        <v>genotype-sienna</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>0</v>
@@ -1254,26 +1217,24 @@
         <v>0</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>0</v>
+        <v>0.084</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.084</v>
+        <v>0.385</v>
       </c>
       <c r="J13" s="3" t="n">
-        <v>0.385</v>
+        <v>0.754</v>
       </c>
       <c r="K13" s="3" t="n">
-        <v>0.754</v>
+        <v>0.979</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>0.979</v>
+        <v>0.909</v>
       </c>
       <c r="M13" s="3" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="N13" s="3" t="n">
         <v>0.955</v>
       </c>
+      <c r="ALN13" s="0"/>
       <c r="ALO13" s="0"/>
       <c r="ALP13" s="0"/>
       <c r="ALQ13" s="0"/>
@@ -1299,11 +1260,10 @@
     </row>
     <row r="14" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="0" t="str">
-        <f aca="false">LEFT(A14,LEN(A14)-2)</f>
-        <v>genotype-gold</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>0</v>
@@ -1324,23 +1284,21 @@
         <v>0</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0</v>
+        <v>0.032</v>
       </c>
       <c r="J14" s="3" t="n">
-        <v>0.032</v>
+        <v>0.109</v>
       </c>
       <c r="K14" s="3" t="n">
-        <v>0.109</v>
+        <v>0.129</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>0.129</v>
+        <v>0.255</v>
       </c>
       <c r="M14" s="3" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="N14" s="3" t="n">
         <v>0.537</v>
       </c>
+      <c r="ALN14" s="0"/>
       <c r="ALO14" s="0"/>
       <c r="ALP14" s="0"/>
       <c r="ALQ14" s="0"/>
@@ -1366,38 +1324,37 @@
     </row>
     <row r="15" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="0" t="str">
-        <f aca="false">LEFT(A15,LEN(A15)-2)</f>
-        <v>genotype-orange</v>
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0</v>
+        <v>0.018</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>0.018</v>
+        <v>0.166</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>0.166</v>
+        <v>0.333</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>0.333</v>
+        <v>0.109</v>
       </c>
       <c r="G15" s="3" t="n">
-        <v>0.109</v>
+        <v>0.017</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>0.017</v>
+        <v>0.045</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.045</v>
+        <v>0.037</v>
       </c>
       <c r="J15" s="3" t="n">
-        <v>0.037</v>
+        <v>0.056</v>
       </c>
       <c r="K15" s="3" t="n">
-        <v>0.056</v>
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="n">
         <v>0</v>
@@ -1405,9 +1362,7 @@
       <c r="M15" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="ALN15" s="0"/>
       <c r="ALO15" s="0"/>
       <c r="ALP15" s="0"/>
       <c r="ALQ15" s="0"/>
@@ -1433,11 +1388,10 @@
     </row>
     <row r="16" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="0" t="str">
-        <f aca="false">LEFT(A16,LEN(A16)-2)</f>
-        <v>genotype-aqua</v>
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>0</v>
@@ -1446,35 +1400,33 @@
         <v>0</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>0.08</v>
+        <v>0.445</v>
       </c>
       <c r="G16" s="3" t="n">
-        <v>0.445</v>
+        <v>0.564</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>0.564</v>
+        <v>0.409</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.409</v>
+        <v>0.314</v>
       </c>
       <c r="J16" s="3" t="n">
-        <v>0.314</v>
+        <v>0.177</v>
       </c>
       <c r="K16" s="3" t="n">
-        <v>0.177</v>
+        <v>0.025</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>0.025</v>
+        <v>0.036</v>
       </c>
       <c r="M16" s="3" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="N16" s="3" t="n">
         <v>0.064</v>
       </c>
+      <c r="ALN16" s="0"/>
       <c r="ALO16" s="0"/>
       <c r="ALP16" s="0"/>
       <c r="ALQ16" s="0"/>
@@ -1517,7 +1469,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -1529,7 +1481,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>0</v>
@@ -2006,7 +1958,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>0</v>

--- a/tests/data/tables/real.nature12344-s2.BYB1-G07.xlsx
+++ b/tests/data/tables/real.nature12344-s2.BYB1-G07.xlsx
@@ -5,13 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="trajectory" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="genotype" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="sorted" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="unsorted" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="genotype" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="edges" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="score.greater" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="score.fixed" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="score.derivative" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="score.jaccard" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="area.x_and_y" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="area.total" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="28">
   <si>
     <t xml:space="preserve">Trajectory</t>
   </si>
@@ -102,6 +108,12 @@
   <si>
     <t xml:space="preserve">genotype-0</t>
   </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">area</t>
+  </si>
 </sst>
 </file>
 
@@ -111,7 +123,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -143,6 +155,13 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -219,7 +238,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -238,6 +257,14 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -323,9 +350,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1217160</xdr:colOff>
+      <xdr:colOff>1215000</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>158400</xdr:rowOff>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -339,7 +366,49 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1968840" y="3422160"/>
-          <a:ext cx="7153200" cy="5961240"/>
+          <a:ext cx="7151040" cy="5959080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>636120</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>42480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>682200</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>160920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Image 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3399480" y="3001320"/>
+          <a:ext cx="7361280" cy="6133320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -365,9 +434,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>560160</xdr:colOff>
+      <xdr:colOff>558000</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:rowOff>36000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -381,7 +450,301 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1650960" y="1413360"/>
-          <a:ext cx="7362720" cy="6135480"/>
+          <a:ext cx="7360560" cy="6133320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>70200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>101520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>115560</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>57600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2020680" y="1434960"/>
+          <a:ext cx="7360560" cy="6133320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1134000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>752400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>118800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1134000" y="1788120"/>
+          <a:ext cx="7361280" cy="6133320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>282960</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>25560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>292320</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>144000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="282960" y="1976040"/>
+          <a:ext cx="7361280" cy="6133320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>100440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>18360</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>56520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9000" y="2213640"/>
+          <a:ext cx="7361280" cy="6133320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4320</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>13680</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>6120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Image 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4320" y="1675440"/>
+          <a:ext cx="7361280" cy="6133320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1131840</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>328320</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>156960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Image 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1131840" y="2151360"/>
+          <a:ext cx="7361280" cy="6133320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>488520</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>10440</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>118800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Image 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1626120" y="1463040"/>
+          <a:ext cx="7361640" cy="6133320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -403,7 +766,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -1454,6 +1817,360 @@
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>505</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>665</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>825</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>910</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="J12" s="3" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="K12" s="3" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="L12" s="3" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="M12" s="3" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="J13" s="3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K13" s="3" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="L13" s="3" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="M13" s="3" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="J14" s="3" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="K14" s="3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L14" s="3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M14" s="3" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K15" s="3" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="L15" s="3" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="M15" s="3" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J16" s="3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1947,7 +2664,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2251,6 +2968,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2262,7 +2980,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2336,5 +3054,781 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.69"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="E5" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.69"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.69"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.69"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.69"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>